--- a/FramWork2/TestData/Data.xlsx
+++ b/FramWork2/TestData/Data.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aihaitipaziliti/eclipse-workspace/FramWork2/TestData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aihaitipaziliti/git/Framework/FramWork2/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="RegTestData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,12 +24,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>test117@gmail.com</t>
-  </si>
-  <si>
-    <t>Bigno2018</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>confirmpassword</t>
+  </si>
+  <si>
+    <t>Sami</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>ssam</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Tommy</t>
+  </si>
+  <si>
+    <t>ttomm</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Jimmy</t>
+  </si>
+  <si>
+    <t>jimmm</t>
   </si>
 </sst>
 </file>
@@ -45,12 +81,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -65,8 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,21 +387,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>1234</v>
+      </c>
+      <c r="E2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>2345</v>
+      </c>
+      <c r="E3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>3456</v>
+      </c>
+      <c r="E4">
+        <v>543</v>
       </c>
     </row>
   </sheetData>
